--- a/Calculo_Rod.xlsx
+++ b/Calculo_Rod.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emily\OneDrive\Escritorio\2021-2022-2023\20223\MATERIAS-2023\GESTION DE SOFTWARE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emily\OneDrive\Escritorio\Mi_destino_Rodriguez\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA2D58A-D7E4-4C79-B42A-7905DD865689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5501CFFD-2918-4919-95EB-05291A1B030C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7329120F-0440-43A7-8374-7175450F230E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">Calculo de la nota </t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Redondeo</t>
+  </si>
+  <si>
+    <t>Modificaacion del archivo- ultimo paso</t>
   </si>
 </sst>
 </file>
@@ -72,15 +75,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -88,13 +97,167 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,57 +572,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F12D3DF-705E-44C9-BA22-AC6F529D44C1}">
-  <dimension ref="C2:F7"/>
+  <dimension ref="C2:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="3:6" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="2" spans="3:8" ht="26.25" x14ac:dyDescent="0.4">
       <c r="F2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
+    <row r="3" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="11">
         <v>85</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="11">
         <f>D4*7/100</f>
         <v>5.95</v>
       </c>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
+    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="9">
         <v>75</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="10">
         <f>D5*3/100</f>
         <v>2.25</v>
       </c>
+      <c r="H5" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
+    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E6">
+      <c r="D6" s="2"/>
+      <c r="E6" s="4">
         <f>E4+E5</f>
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
+    <row r="7" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E7">
+      <c r="D7" s="6"/>
+      <c r="E7" s="7">
         <f>ROUND(E6,0.5)</f>
         <v>8</v>
       </c>
